--- a/data/excel/2023/09/29.xlsx
+++ b/data/excel/2023/09/29.xlsx
@@ -61,6 +61,9 @@
     <t>55.00</t>
   </si>
   <si>
+    <t>78.00</t>
+  </si>
+  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -70,15 +73,12 @@
     <t>Tomato Small(Tunnel)</t>
   </si>
   <si>
-    <t>78.00</t>
+    <t>52.50</t>
   </si>
   <si>
     <t>Tomato Small(Indian)</t>
   </si>
   <si>
-    <t>52.50</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -91,16 +91,19 @@
     <t>Potato Red</t>
   </si>
   <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.33</t>
+  </si>
+  <si>
     <t>Potato Red(Indian)</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.33</t>
+    <t>Potato Red(Mude)</t>
   </si>
   <si>
     <t>46.00</t>
@@ -109,7 +112,7 @@
     <t>47.60</t>
   </si>
   <si>
-    <t>Potato Red(Mude)</t>
+    <t>48.00</t>
   </si>
   <si>
     <t>47.00</t>
@@ -118,9 +121,6 @@
     <t>Potato White</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>Onion Dry (Indian)</t>
   </si>
   <si>
@@ -133,18 +133,18 @@
     <t>71.20</t>
   </si>
   <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
     <t>Carrot(Local)</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>75.00</t>
   </si>
   <si>
@@ -154,10 +154,13 @@
     <t>80.00</t>
   </si>
   <si>
+    <t>45.00</t>
+  </si>
+  <si>
     <t>Cabbage(Local)</t>
   </si>
   <si>
-    <t>45.00</t>
+    <t>Cauli Local</t>
   </si>
   <si>
     <t>90.00</t>
@@ -166,9 +169,6 @@
     <t>85.00</t>
   </si>
   <si>
-    <t>Cauli Local</t>
-  </si>
-  <si>
     <t>Raddish Red</t>
   </si>
   <si>
@@ -193,21 +193,24 @@
     <t>86.00</t>
   </si>
   <si>
+    <t>95.00</t>
+  </si>
+  <si>
     <t>Cowpea(Short)</t>
   </si>
   <si>
     <t>100.00</t>
   </si>
   <si>
-    <t>95.00</t>
-  </si>
-  <si>
     <t>French Bean(Local)</t>
   </si>
   <si>
     <t>French Bean(Hybrid)</t>
   </si>
   <si>
+    <t>French Bean(Rajma)</t>
+  </si>
+  <si>
     <t>200.00</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
     <t>190.00</t>
   </si>
   <si>
-    <t>French Bean(Rajma)</t>
-  </si>
-  <si>
     <t>Sword Bean</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Sponge Gourd</t>
   </si>
   <si>
+    <t>48.33</t>
+  </si>
+  <si>
     <t>Pumpkin</t>
   </si>
   <si>
-    <t>48.33</t>
-  </si>
-  <si>
     <t>Squash(Round)</t>
   </si>
   <si>
@@ -310,15 +310,15 @@
     <t>Onion Green</t>
   </si>
   <si>
+    <t>Mushroom(Kanya)</t>
+  </si>
+  <si>
+    <t>160.00</t>
+  </si>
+  <si>
     <t>150.00</t>
   </si>
   <si>
-    <t>Mushroom(Kanya)</t>
-  </si>
-  <si>
-    <t>160.00</t>
-  </si>
-  <si>
     <t>Mushroom(Button)</t>
   </si>
   <si>
@@ -331,18 +331,18 @@
     <t>325.00</t>
   </si>
   <si>
+    <t>475.00</t>
+  </si>
+  <si>
+    <t>Asparagus</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
     <t>450.00</t>
   </si>
   <si>
-    <t>475.00</t>
-  </si>
-  <si>
-    <t>Asparagus</t>
-  </si>
-  <si>
-    <t>500.00</t>
-  </si>
-  <si>
     <t>Neuro</t>
   </si>
   <si>
@@ -373,30 +373,30 @@
     <t>Celery</t>
   </si>
   <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
     <t>Parseley</t>
   </si>
   <si>
-    <t>700.00</t>
-  </si>
-  <si>
-    <t>600.00</t>
-  </si>
-  <si>
-    <t>650.00</t>
-  </si>
-  <si>
     <t>Mint</t>
   </si>
   <si>
     <t>Turnip A</t>
   </si>
   <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
     <t>146.67</t>
   </si>
   <si>
-    <t>Tamarind</t>
-  </si>
-  <si>
     <t>Bamboo Shoot</t>
   </si>
   <si>
@@ -415,24 +415,24 @@
     <t>Gundruk</t>
   </si>
   <si>
+    <t>Apple(Fuji)</t>
+  </si>
+  <si>
     <t>320.00</t>
   </si>
   <si>
     <t>335.00</t>
   </si>
   <si>
-    <t>Apple(Fuji)</t>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Per Dozen</t>
   </si>
   <si>
     <t>156.67</t>
   </si>
   <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Per Dozen</t>
-  </si>
-  <si>
     <t>Lime</t>
   </si>
   <si>
@@ -454,12 +454,12 @@
     <t>Pomegranate</t>
   </si>
   <si>
+    <t>Grapes(Black)</t>
+  </si>
+  <si>
     <t>425.00</t>
   </si>
   <si>
-    <t>Grapes(Black)</t>
-  </si>
-  <si>
     <t>Orange(Indian)</t>
   </si>
   <si>
@@ -484,12 +484,12 @@
     <t>Cucumber(Local)</t>
   </si>
   <si>
+    <t>Cucumber(Hybrid)</t>
+  </si>
+  <si>
     <t>32.50</t>
   </si>
   <si>
-    <t>Cucumber(Hybrid)</t>
-  </si>
-  <si>
     <t>Lemon</t>
   </si>
   <si>
@@ -505,12 +505,12 @@
     <t>Pear(Chinese)</t>
   </si>
   <si>
+    <t>106.67</t>
+  </si>
+  <si>
     <t>Papaya(Indian)</t>
   </si>
   <si>
-    <t>106.67</t>
-  </si>
-  <si>
     <t>Guava</t>
   </si>
   <si>
@@ -556,37 +556,40 @@
     <t>Capsicum</t>
   </si>
   <si>
+    <t>235.00</t>
+  </si>
+  <si>
     <t>Garlic Green</t>
   </si>
   <si>
-    <t>235.00</t>
-  </si>
-  <si>
     <t>Coriander Green</t>
   </si>
   <si>
     <t>64.00</t>
   </si>
   <si>
+    <t>Garlic Dry Chinese</t>
+  </si>
+  <si>
     <t>230.00</t>
   </si>
   <si>
     <t>225.00</t>
   </si>
   <si>
-    <t>Garlic Dry Chinese</t>
-  </si>
-  <si>
     <t>256.67</t>
   </si>
   <si>
     <t>Garlic Dry Nepali</t>
   </si>
   <si>
+    <t>Clive Dry</t>
+  </si>
+  <si>
     <t>210.00</t>
   </si>
   <si>
-    <t>Clive Dry</t>
+    <t>Fish Fresh(Rahu)</t>
   </si>
   <si>
     <t>370.00</t>
@@ -595,7 +598,7 @@
     <t>385.00</t>
   </si>
   <si>
-    <t>Fish Fresh(Rahu)</t>
+    <t>Fish Fresh(Bachuwa)</t>
   </si>
   <si>
     <t>270.00</t>
@@ -604,9 +607,6 @@
     <t>285.00</t>
   </si>
   <si>
-    <t>Fish Fresh(Bachuwa)</t>
-  </si>
-  <si>
     <t>Fish Fresh(Chhadi)</t>
   </si>
   <si>
@@ -616,10 +616,10 @@
     <t>240.00</t>
   </si>
   <si>
+    <t>265.00</t>
+  </si>
+  <si>
     <t>Fish Fresh(Mungari)</t>
-  </si>
-  <si>
-    <t>265.00</t>
   </si>
 </sst>
 </file>
@@ -994,19 +994,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1026,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8">
@@ -1074,7 +1074,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1083,10 +1083,10 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -1094,19 +1094,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1134,19 +1134,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1174,7 +1174,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -1194,19 +1194,19 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
@@ -1246,7 +1246,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
@@ -1286,7 +1286,7 @@
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1306,7 +1306,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>45</v>
@@ -1334,19 +1334,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -1360,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" t="s">
         <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
@@ -1380,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
@@ -1394,19 +1394,19 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -1486,7 +1486,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1526,7 +1526,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -1586,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -1594,7 +1594,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
@@ -1603,10 +1603,10 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1646,7 @@
         <v>13</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37">
@@ -1660,10 +1660,10 @@
         <v>8</v>
       </c>
       <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
         <v>40</v>
-      </c>
-      <c r="E37" t="s">
-        <v>41</v>
       </c>
       <c r="F37" t="s">
         <v>84</v>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E42" t="s">
         <v>45</v>
@@ -1774,19 +1774,19 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+      <c r="F43" t="s">
         <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>40</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -1814,19 +1814,19 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
         <v>107</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>108</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>105</v>
-      </c>
-      <c r="F45" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
         <v>45</v>
@@ -1954,19 +1954,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
         <v>119</v>
       </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>120</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>121</v>
-      </c>
-      <c r="F52" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="53">
@@ -1980,13 +1980,13 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" t="s">
         <v>120</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>121</v>
-      </c>
-      <c r="F53" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="54">
@@ -2014,19 +2014,19 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F55" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -2040,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -2094,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
@@ -2103,10 +2103,10 @@
         <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -2114,19 +2114,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
+        <v>136</v>
+      </c>
+      <c r="C60" t="s">
         <v>137</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" t="s">
         <v>138</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -2174,19 +2174,19 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E63" t="s">
         <v>115</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64">
@@ -2200,13 +2200,13 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65">
@@ -2240,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
         <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="67">
@@ -2263,10 +2263,10 @@
         <v>102</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -2280,13 +2280,13 @@
         <v>154</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F68" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">
@@ -2306,7 +2306,7 @@
         <v>13</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70">
@@ -2314,19 +2314,19 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E70" t="s">
         <v>54</v>
       </c>
       <c r="F70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71">
@@ -2360,7 +2360,7 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E72" t="s">
         <v>45</v>
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E73" t="s">
         <v>103</v>
@@ -2394,7 +2394,7 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
@@ -2403,10 +2403,10 @@
         <v>130</v>
       </c>
       <c r="E74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75">
@@ -2423,7 +2423,7 @@
         <v>129</v>
       </c>
       <c r="E75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
         <v>130</v>
@@ -2480,10 +2480,10 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F78" t="s">
         <v>169</v>
@@ -2503,7 +2503,7 @@
         <v>103</v>
       </c>
       <c r="E79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F79" t="s">
         <v>111</v>
@@ -2540,10 +2540,10 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F81" t="s">
         <v>173</v>
@@ -2560,13 +2560,13 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" t="s">
         <v>108</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>105</v>
-      </c>
-      <c r="F82" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="83">
@@ -2580,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E83" t="s">
         <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84">
@@ -2640,10 +2640,10 @@
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E86" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F86" t="s">
         <v>169</v>
@@ -2660,13 +2660,13 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E87" t="s">
         <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88">
@@ -2674,7 +2674,7 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
@@ -2686,7 +2686,7 @@
         <v>141</v>
       </c>
       <c r="F88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89">
@@ -2714,19 +2714,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E90" t="s">
         <v>141</v>
       </c>
       <c r="F90" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91">
@@ -2754,7 +2754,7 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
@@ -2763,10 +2763,10 @@
         <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F92" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93">
@@ -2774,7 +2774,7 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
@@ -2783,10 +2783,10 @@
         <v>115</v>
       </c>
       <c r="E93" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F93" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94">
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
@@ -2803,10 +2803,10 @@
         <v>103</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="95">
@@ -2834,7 +2834,7 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -2846,7 +2846,7 @@
         <v>111</v>
       </c>
       <c r="F96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
